--- a/fac.xlsx
+++ b/fac.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Liste de factures</t>
   </si>
   <si>
-    <t>3 factures - Tri : N° facture</t>
-  </si>
-  <si>
-    <t>Dates comprises entre le 11/04/2022 et le 31/12/2022.</t>
+    <t>7 factures - Tri : N° facture</t>
+  </si>
+  <si>
+    <t>Dates comprises entre le 01/04/2022 et le 31/12/2022.</t>
   </si>
   <si>
     <t>N° facture</t>
@@ -40,19 +40,25 @@
     <t>Client</t>
   </si>
   <si>
+    <t>ADF Technologies</t>
+  </si>
+  <si>
+    <t>AIA Clermont-Ferrand</t>
+  </si>
+  <si>
+    <t>AIA de Cuers-Pierrefeu</t>
+  </si>
+  <si>
     <t>IGO SOLUTIONS</t>
   </si>
   <si>
-    <t>AIA Clermont-Ferrand</t>
-  </si>
-  <si>
     <t>HYDRO SYSTEMS KG</t>
   </si>
   <si>
-    <t>22 825.00 Euros   149 722.19 Francs</t>
-  </si>
-  <si>
-    <t>23 326.00 Euros   153 008.53 Francs</t>
+    <t>34 747.50 Euros   227 928.66 Francs</t>
+  </si>
+  <si>
+    <t>37 633.00 Euros   246 856.30 Francs</t>
   </si>
   <si>
     <t>Date</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q13"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -431,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>44670.50269435185</v>
+        <v>44672.42663738426</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -447,42 +453,42 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>5232</v>
+        <v>5228</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="G8" s="1">
-        <v>44722</v>
+        <v>44657</v>
       </c>
       <c r="L8">
-        <v>385</v>
+        <v>4586.5</v>
       </c>
       <c r="N8">
-        <v>462</v>
+        <v>5503.8</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -490,22 +496,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>5233</v>
+        <v>5229</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>44663</v>
+        <v>44657</v>
       </c>
       <c r="G9" s="1">
-        <v>44722</v>
+        <v>44691</v>
       </c>
       <c r="L9">
-        <v>2120</v>
+        <v>5950</v>
       </c>
       <c r="N9">
-        <v>2544</v>
+        <v>7140</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -513,49 +519,141 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
+        <v>5230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44657</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44691</v>
+      </c>
+      <c r="L10">
+        <v>1200</v>
+      </c>
+      <c r="N10">
+        <v>1440</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>5231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44659</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44712</v>
+      </c>
+      <c r="L11">
+        <v>186</v>
+      </c>
+      <c r="N11">
+        <v>223.2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>5232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44722</v>
+      </c>
+      <c r="L12">
+        <v>385</v>
+      </c>
+      <c r="N12">
+        <v>462</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>5233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44663</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44722</v>
+      </c>
+      <c r="L13">
+        <v>2120</v>
+      </c>
+      <c r="N13">
+        <v>2544</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
         <v>5234</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
         <v>44665</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G14" s="1">
         <v>44696</v>
       </c>
-      <c r="L10">
+      <c r="L14">
         <v>20320</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <v>20320</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="D17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
